--- a/Predictions/Week 8/Week 8.xlsx
+++ b/Predictions/Week 8/Week 8.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\greg_yonan\Desktop\Tools\Programs\NFL\2025 Season\Predictions\Week 8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7BC067F-AEAE-4AEA-93FB-C79169C84D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72323BA-7F0C-4ECD-83ED-0D19947341E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -139,7 +139,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -186,6 +186,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFBFBFBF"/>
         <bgColor rgb="FFBFBFBF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -236,7 +242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -261,6 +267,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -563,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,7 +624,7 @@
       <c r="D2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="10" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="8" t="s">
@@ -635,13 +644,13 @@
       <c r="C3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="8" t="s">
@@ -655,7 +664,7 @@
       <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="8" t="s">
@@ -667,7 +676,7 @@
       <c r="F4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="10" t="s">
         <v>11</v>
       </c>
     </row>
@@ -678,7 +687,7 @@
       <c r="B5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="8" t="s">
@@ -687,7 +696,7 @@
       <c r="E5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="10" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="8" t="s">
@@ -701,19 +710,19 @@
       <c r="B6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="10" t="s">
         <v>16</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="10" t="s">
         <v>16</v>
       </c>
     </row>
@@ -733,7 +742,7 @@
       <c r="E7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="10" t="s">
         <v>17</v>
       </c>
       <c r="G7" s="8" t="s">
@@ -747,19 +756,19 @@
       <c r="B8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="10" t="s">
         <v>20</v>
       </c>
     </row>
@@ -779,10 +788,10 @@
       <c r="E9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="10" t="s">
         <v>21</v>
       </c>
     </row>
@@ -796,13 +805,13 @@
       <c r="C10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="10" t="s">
         <v>24</v>
       </c>
       <c r="G10" s="8" t="s">
@@ -816,7 +825,7 @@
       <c r="B11" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D11" s="8" t="s">
@@ -825,7 +834,7 @@
       <c r="E11" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="10" t="s">
         <v>25</v>
       </c>
       <c r="G11" s="8" t="s">
@@ -848,7 +857,7 @@
       <c r="E12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="10" t="s">
         <v>27</v>
       </c>
       <c r="G12" s="8" t="s">
@@ -871,10 +880,10 @@
       <c r="E13" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="10" t="s">
         <v>30</v>
       </c>
     </row>
@@ -894,11 +903,28 @@
       <c r="E14" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="11" t="s">
         <v>31</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C15" s="12">
+        <v>0.61539999999999995</v>
+      </c>
+      <c r="D15" s="12">
+        <v>0.69230000000000003</v>
+      </c>
+      <c r="E15" s="12">
+        <v>0.61539999999999995</v>
+      </c>
+      <c r="F15" s="12">
+        <v>0.23080000000000001</v>
+      </c>
+      <c r="G15" s="12">
+        <v>0.61539999999999995</v>
       </c>
     </row>
   </sheetData>
